--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -1,34 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u167856\Documents\GitHub\lecture_financial_statements_analysis\topic_2_img\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453098B6-36B0-462E-9592-8335E104F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1_loan" sheetId="1" r:id="rId1"/>
-    <sheet name="2_earnings_equity" sheetId="3" r:id="rId2"/>
+    <sheet name="1_loan" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2_earnings_equity" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -37,72 +21,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="45">
-  <si>
-    <t>Case 1: Borrowing $1,000,000 from a bank at a 5% interest rate:</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>interest rate</t>
-  </si>
-  <si>
-    <t>Accounting event 1: Loan reception the 1st January</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Cash Flows Statement</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Revenues</t>
-  </si>
-  <si>
-    <t>Cash Inflows</t>
-  </si>
-  <si>
-    <t>financing</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>Liability</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Cash Outflows</t>
-  </si>
-  <si>
-    <t>Non current borrowing</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
-    <t>Accounting event 2: (Dec 31st) recognition of interest debt/expense</t>
-  </si>
-  <si>
-    <t>Interest Payable/ Accrued Interests</t>
-  </si>
-  <si>
-    <t>interest expenses</t>
-  </si>
-  <si>
-    <t>Case 2: Paying the loan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">Case 1: Borrowing $1,000,000 from a bank at a 5% interest rate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interest rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting event 1: Loan reception the 1st January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flows Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Inflows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Outflows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non current borrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting event 2: (Dec 31st) recognition of interest debt/expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Payable/ Accrued Interests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 2: Paying the loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the loan reflected in the financial statements as of Dec 31st of year 4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current borrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Payable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting event: (Jan 1st year 5) payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 3: debt restructuring</t>
   </si>
   <si>
     <r>
@@ -113,7 +115,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Where was the loan reflected in the financial statements as of Dec 31</t>
+      <t xml:space="preserve">Where was the loan reflected in the financial statements as of Dec 31</t>
     </r>
     <r>
       <rPr>
@@ -124,7 +126,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>st</t>
+      <t xml:space="preserve">st</t>
     </r>
     <r>
       <rPr>
@@ -138,71 +140,24 @@
     </r>
   </si>
   <si>
-    <t>Current borrowing</t>
-  </si>
-  <si>
-    <t>Interest Payable</t>
-  </si>
-  <si>
-    <t>Accounting event: (Jan 1st year 5) payment</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Case 3: debt restructuring</t>
-  </si>
-  <si>
-    <t>Accounting event:  (Jan 1st  year 5) renovation and interest payment</t>
-  </si>
-  <si>
-    <t>Accounting event: (Dec 31 st year 5) recognition of interest expense</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Decision: to pay</t>
-  </si>
-  <si>
-    <t>Decision: to restructure</t>
-  </si>
-  <si>
-    <t>Liquidity</t>
-  </si>
-  <si>
-    <t>current ratio</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>cash ratio</t>
-  </si>
-  <si>
-    <t>Solvency</t>
-  </si>
-  <si>
-    <t>debt to assets</t>
-  </si>
-  <si>
-    <t>Profitability</t>
-  </si>
-  <si>
-    <t>net profit ratio</t>
-  </si>
-  <si>
-    <t>Restructuring alleviates solvency problems but not for free, as (financial) profitability gets negatively affected.</t>
-  </si>
-  <si>
-    <t>Interest expenses</t>
+    <t xml:space="preserve">Accounting event:  (Jan 1st  year 5) renovation and interest payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting event: (Dec 31 st year 5) recognition of interest expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interest expenses</t>
   </si>
   <si>
     <r>
-      <t>Final Statements as of  Dec 31</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Final Statements as of  Dec 31</t>
     </r>
     <r>
       <rPr>
@@ -213,7 +168,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>st</t>
+      <t xml:space="preserve">st</t>
     </r>
     <r>
       <rPr>
@@ -226,15 +181,62 @@
       <t xml:space="preserve"> year 5</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision: to pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision: to restructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt to assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profitability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net profit ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restructuring alleviates liquidity concerns  but not for free, as (financial) profitability gets negatively affected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting event 1: capital increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting event 2: dividend payment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0;[Red]\-[$$-409]#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,7 +244,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -256,15 +273,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -294,132 +311,230 @@
     </fill>
   </fills>
   <borders count="8">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="33">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -478,76 +593,60 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -579,7 +678,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -603,7 +702,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -663,77 +762,78 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:M115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
@@ -750,24 +850,24 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="10"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
       <c r="G11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="L11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="11" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3" t="n">
         <v>1000000</v>
       </c>
       <c r="G12" s="9"/>
@@ -776,9 +876,9 @@
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="10"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
@@ -792,13 +892,13 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="10"/>
-      <c r="E14" s="4"/>
-      <c r="F14" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="11" t="n">
         <v>1000000</v>
       </c>
       <c r="I14" s="10"/>
@@ -806,40 +906,40 @@
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="16" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="J15" s="18"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2" t="s">
+      <c r="J20" s="6"/>
+      <c r="L20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
@@ -856,31 +956,27 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="10"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
       <c r="G22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
-      <c r="L22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="11">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="10"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="3"/>
       <c r="G23" s="9"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
       <c r="L23" s="10"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="10"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="8" t="s">
         <v>13</v>
       </c>
@@ -894,198 +990,198 @@
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="10"/>
-      <c r="E25" s="4"/>
-      <c r="F25" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="11">
-        <f>+C5*C4</f>
+      <c r="G25" s="11" t="n">
+        <f aca="false">+C5*C4</f>
         <v>50000</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="11">
-        <f>+-G25</f>
+        <v>20</v>
+      </c>
+      <c r="J25" s="11" t="n">
+        <f aca="false">+-G25</f>
         <v>-50000</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="I26" s="16" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="I26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="17">
-        <f>SUM(J21:J25)</f>
+      <c r="J26" s="18" t="n">
+        <f aca="false">SUM(J21:J25)</f>
         <v>-50000</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="L26" s="13"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="I37" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="L37" s="1" t="s">
+      <c r="J37" s="19"/>
+      <c r="L37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D38" s="18" t="s">
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="I38" s="22" t="s">
+      <c r="G38" s="23"/>
+      <c r="I38" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="L38" s="18" t="s">
+      <c r="J38" s="25"/>
+      <c r="L38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D39" s="22"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="23"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D40" s="22"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="21"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="20" t="s">
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="24"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="25"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="24"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="23"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="24"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="I41" s="18" t="s">
+      <c r="G41" s="23"/>
+      <c r="I41" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="L41" s="18" t="s">
+      <c r="J41" s="25"/>
+      <c r="L41" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="23"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D42" s="22"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="19" t="s">
+      <c r="M41" s="25"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="24"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="25" t="n">
         <v>1000000</v>
       </c>
-      <c r="I42" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="23">
-        <f>-G43</f>
+      <c r="I42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="25" t="n">
+        <f aca="false">-G43</f>
         <v>-50000</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27" t="s">
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="28">
-        <f>C4*C5</f>
+      <c r="G43" s="30" t="n">
+        <f aca="false">C4*C5</f>
         <v>50000</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="28">
-        <f>J42</f>
+      <c r="J43" s="30" t="n">
+        <f aca="false">J42</f>
         <v>-50000</v>
       </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="28"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
+      <c r="L43" s="27"/>
+      <c r="M43" s="30"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D45" s="2" t="s">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="I45" s="2" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="I45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="L45" s="2" t="s">
+      <c r="J45" s="6"/>
+      <c r="L45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
@@ -1102,12 +1198,12 @@
       </c>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="4">
-        <f>+-(G42+G43)</f>
+      <c r="E47" s="3" t="n">
+        <f aca="false">+-(G42+G43)</f>
         <v>-1050000</v>
       </c>
       <c r="G47" s="11"/>
@@ -1116,18 +1212,18 @@
       <c r="L47" s="10"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="10"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="3"/>
       <c r="G48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
       <c r="L48" s="10"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="10"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="8" t="s">
         <v>13</v>
       </c>
@@ -1141,14 +1237,14 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="10"/>
-      <c r="E50" s="4"/>
-      <c r="F50" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="11">
-        <f>-G42</f>
+      <c r="G50" s="11" t="n">
+        <f aca="false">-G42</f>
         <v>-1000000</v>
       </c>
       <c r="I50" s="10"/>
@@ -1156,188 +1252,188 @@
       <c r="L50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="11">
-        <f>+E47</f>
+      <c r="M50" s="11" t="n">
+        <f aca="false">+E47</f>
         <v>-1050000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14" t="s">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="17">
-        <f>-G43</f>
+      <c r="G51" s="18" t="n">
+        <f aca="false">-G43</f>
         <v>-50000</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="17"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+      <c r="J51" s="18"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D61" s="1" t="s">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="I61" s="1" t="s">
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="I61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="L61" s="1" t="s">
+      <c r="J61" s="19"/>
+      <c r="L61" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D62" s="18" t="s">
+      <c r="M61" s="19"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20" t="s">
+      <c r="E62" s="21"/>
+      <c r="F62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="21"/>
-      <c r="I62" s="22" t="s">
+      <c r="G62" s="23"/>
+      <c r="I62" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="L62" s="18" t="s">
+      <c r="J62" s="25"/>
+      <c r="L62" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="21"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D63" s="22"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="23"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D64" s="22"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="21"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="23"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="23"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D65" s="22"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="20" t="s">
+      <c r="M62" s="23"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="24"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="25"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="25"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="25"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="24"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="23"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="25"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="25"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="24"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="I65" s="18" t="s">
+      <c r="G65" s="23"/>
+      <c r="I65" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="23"/>
-      <c r="L65" s="18" t="s">
+      <c r="J65" s="25"/>
+      <c r="L65" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="23"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D66" s="22"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="19" t="s">
+      <c r="M65" s="25"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="24"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="25" t="n">
         <v>1000000</v>
       </c>
-      <c r="I66" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J66" s="23">
-        <f>-G67</f>
+      <c r="I66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="25" t="n">
+        <f aca="false">-G67</f>
         <v>-50000</v>
       </c>
-      <c r="L66" s="22"/>
-      <c r="M66" s="23"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27" t="s">
+      <c r="L66" s="24"/>
+      <c r="M66" s="25"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="27"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="28">
-        <f>C57*C56</f>
+      <c r="G67" s="30" t="n">
+        <f aca="false">C57*C56</f>
         <v>50000</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="28">
-        <f>J66</f>
+      <c r="J67" s="30" t="n">
+        <f aca="false">J66</f>
         <v>-50000</v>
       </c>
-      <c r="L67" s="25"/>
-      <c r="M67" s="28"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D72" s="2" t="s">
+      <c r="L67" s="27"/>
+      <c r="M67" s="30"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="I72" s="2" t="s">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="I72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="2"/>
-      <c r="L72" s="2" t="s">
+      <c r="J72" s="6"/>
+      <c r="L72" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="7" t="s">
         <v>7</v>
       </c>
@@ -1354,12 +1450,12 @@
       </c>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="4">
-        <f>+-C57*C56</f>
+      <c r="E74" s="3" t="n">
+        <f aca="false">+-C57*C56</f>
         <v>-50000</v>
       </c>
       <c r="G74" s="11"/>
@@ -1368,18 +1464,18 @@
       <c r="L74" s="10"/>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="10"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="3"/>
       <c r="G75" s="9"/>
       <c r="I75" s="10"/>
       <c r="J75" s="11"/>
       <c r="L75" s="10"/>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="10"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="8" t="s">
         <v>13</v>
       </c>
@@ -1393,76 +1489,76 @@
       </c>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="10"/>
-      <c r="E77" s="4"/>
-      <c r="F77" t="s">
+      <c r="E77" s="3"/>
+      <c r="F77" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="11" t="n">
         <v>-1000000</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J77" s="11"/>
       <c r="L77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M77" s="11">
-        <f>+E74</f>
+      <c r="M77" s="11" t="n">
+        <f aca="false">+E74</f>
         <v>-50000</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="10"/>
-      <c r="E78" s="4"/>
-      <c r="F78" t="s">
+      <c r="E78" s="3"/>
+      <c r="F78" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="11" t="n">
         <v>1000000</v>
       </c>
-      <c r="I78" s="16" t="s">
+      <c r="I78" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="17"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="14" t="s">
+      <c r="J78" s="18"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G79" s="17">
-        <f>-C56*C57</f>
+      <c r="G79" s="18" t="n">
+        <f aca="false">-C56*C57</f>
         <v>-50000</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D84" s="2" t="s">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="I84" s="2" t="s">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="I84" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J84" s="2"/>
-      <c r="L84" s="2" t="s">
+      <c r="J84" s="6"/>
+      <c r="L84" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="7" t="s">
         <v>7</v>
       </c>
@@ -1479,29 +1575,29 @@
       </c>
       <c r="M85" s="9"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="3"/>
       <c r="G86" s="11"/>
       <c r="I86" s="10"/>
       <c r="J86" s="11"/>
       <c r="L86" s="10"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="10"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="3"/>
       <c r="G87" s="9"/>
       <c r="I87" s="10"/>
       <c r="J87" s="11"/>
       <c r="L87" s="10"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="10"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="3"/>
       <c r="F88" s="8" t="s">
         <v>13</v>
       </c>
@@ -1515,62 +1611,62 @@
       </c>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="10"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="3"/>
       <c r="G89" s="11"/>
       <c r="I89" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="11">
-        <f>-G90</f>
+        <v>31</v>
+      </c>
+      <c r="J89" s="11" t="n">
+        <f aca="false">-G90</f>
         <v>-100000</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="14" t="s">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="13"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G90" s="17">
-        <f>D57*C56</f>
+      <c r="G90" s="18" t="n">
+        <f aca="false">D57*C56</f>
         <v>100000</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="I90" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J90" s="17">
-        <f>J89</f>
+      <c r="J90" s="18" t="n">
+        <f aca="false">J89</f>
         <v>-100000</v>
       </c>
-      <c r="L90" s="12"/>
-      <c r="M90" s="17"/>
-    </row>
-    <row r="93" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B93" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D95" s="2" t="s">
+      <c r="L90" s="13"/>
+      <c r="M90" s="18"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="I95" s="2" t="s">
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="I95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="L95" s="2" t="s">
+      <c r="J95" s="6"/>
+      <c r="L95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="7" t="s">
         <v>7</v>
       </c>
@@ -1587,12 +1683,12 @@
       </c>
       <c r="M96" s="9"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="4">
-        <f>+E74</f>
+      <c r="E97" s="3" t="n">
+        <f aca="false">+E74</f>
         <v>-50000</v>
       </c>
       <c r="G97" s="11"/>
@@ -1601,18 +1697,18 @@
       <c r="L97" s="10"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="10"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="3"/>
       <c r="G98" s="9"/>
       <c r="I98" s="10"/>
       <c r="J98" s="11"/>
       <c r="L98" s="10"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="10"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="3"/>
       <c r="F99" s="8" t="s">
         <v>13</v>
       </c>
@@ -1626,168 +1722,169 @@
       </c>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="10"/>
-      <c r="E100" s="4"/>
-      <c r="F100" t="s">
+      <c r="E100" s="3"/>
+      <c r="F100" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G100" s="11">
-        <f>G77</f>
+      <c r="G100" s="11" t="n">
+        <f aca="false">G77</f>
         <v>-1000000</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J100" s="11">
-        <f>+J89</f>
+        <v>20</v>
+      </c>
+      <c r="J100" s="11" t="n">
+        <f aca="false">+J89</f>
         <v>-100000</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="10"/>
-      <c r="E101" s="4"/>
-      <c r="F101" t="s">
+      <c r="E101" s="3"/>
+      <c r="F101" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="11">
-        <f>+G78</f>
+      <c r="G101" s="11" t="n">
+        <f aca="false">+G78</f>
         <v>1000000</v>
       </c>
-      <c r="I101" s="16" t="s">
+      <c r="I101" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="17">
-        <f>J100</f>
+      <c r="J101" s="18" t="n">
+        <f aca="false">J100</f>
         <v>-100000</v>
       </c>
-      <c r="L101" s="12"/>
-      <c r="M101" s="17"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D102" s="12"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="s">
+      <c r="L101" s="13"/>
+      <c r="M101" s="18"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="13"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G102" s="17">
-        <f>+G79+G90</f>
+      <c r="G102" s="18" t="n">
+        <f aca="false">+G79+G90</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B105" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B107" s="3"/>
-      <c r="C107" t="s">
+      <c r="C105" s="32"/>
+      <c r="D105" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E105" s="32"/>
+      <c r="F105" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F107" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B108" s="3"/>
-      <c r="C108" t="s">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2"/>
+      <c r="C107" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D108" t="s">
-        <v>35</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
+      <c r="D107" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B110" s="3"/>
-      <c r="C110" t="s">
+      <c r="F107" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D110" t="s">
-        <v>36</v>
-      </c>
-      <c r="F110" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2"/>
+      <c r="C108" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B112" s="3"/>
-      <c r="C112" t="s">
+      <c r="D108" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D112" t="s">
-        <v>36</v>
-      </c>
-      <c r="F112" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2"/>
+      <c r="C110" s="12" t="s">
         <v>42</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2"/>
+      <c r="C112" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="L72:M72"/>
     <mergeCell ref="D84:G84"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="D95:G95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="L95:M95"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1795,13 +1892,244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417525B8-B5B5-45D6-8607-BC2E155E1C17}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="10"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="10"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="L16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="10"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="L19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1_loan" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
   <si>
     <t xml:space="preserve">Case 1: Borrowing $1,000,000 from a bank at a 5% interest rate:</t>
   </si>
@@ -203,22 +203,40 @@
     <t xml:space="preserve">better</t>
   </si>
   <si>
+    <t xml:space="preserve">Hypothetical situation</t>
+  </si>
+  <si>
     <t xml:space="preserve">cash ratio</t>
   </si>
   <si>
+    <t xml:space="preserve">assets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solvency</t>
   </si>
   <si>
+    <t xml:space="preserve">debt</t>
+  </si>
+  <si>
     <t xml:space="preserve">debt to assets</t>
   </si>
   <si>
+    <t xml:space="preserve">equity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profitability</t>
   </si>
   <si>
     <t xml:space="preserve">net profit ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">Restructuring alleviates liquidity concerns  but not for free, as (financial) profitability gets negatively affected.</t>
+    <t xml:space="preserve">initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt to asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restructuring alleviates liquidity concerns  but not for free, as solvency and (financial) profitability are negatively affected.</t>
   </si>
   <si>
     <t xml:space="preserve">Accounting event 1: capital increase</t>
@@ -231,10 +249,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -393,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,6 +542,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,10 +798,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M115"/>
+  <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I108" activeCellId="0" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1790,6 +1813,8 @@
       <c r="B106" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="J106" s="0"/>
+      <c r="L106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2"/>
@@ -1802,11 +1827,16 @@
       <c r="F107" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="I107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" s="0"/>
+      <c r="L107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2"/>
       <c r="C108" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>38</v>
@@ -1814,16 +1844,28 @@
       <c r="F108" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="H108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>4000000</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2"/>
       <c r="C110" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>39</v>
@@ -1831,16 +1873,22 @@
       <c r="F110" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="H110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2"/>
       <c r="C112" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>39</v>
@@ -1848,10 +1896,40 @@
       <c r="F112" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="1" t="s">
-        <v>45</v>
+      <c r="I112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H113" s="32"/>
+      <c r="I113" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J113" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K113" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <f aca="false">I109/I108</f>
+        <v>0.8</v>
+      </c>
+      <c r="J114" s="33" t="n">
+        <f aca="false">(I109+G50+G51)/(I108-E47)</f>
+        <v>0.487603305785124</v>
+      </c>
+      <c r="K114" s="33" t="n">
+        <f aca="false">(I109+G102)/(I108+E97)</f>
+        <v>0.818181818181818</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1898,20 +1976,20 @@
   </sheetPr>
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,7 +2092,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
   <si>
     <t xml:space="preserve">Case 1: Borrowing $1,000,000 from a bank at a 5% interest rate:</t>
   </si>
@@ -545,7 +545,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I108" activeCellId="0" sqref="I108"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,8 +1762,13 @@
         <f aca="false">+J89</f>
         <v>-100000</v>
       </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="11"/>
+      <c r="L100" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M100" s="11" t="n">
+        <f aca="false">+E97</f>
+        <v>-50000</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="10"/>
@@ -1813,8 +1818,6 @@
       <c r="B106" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J106" s="0"/>
-      <c r="L106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2"/>
@@ -1830,8 +1833,6 @@
       <c r="I107" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J107" s="0"/>
-      <c r="L107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2"/>
@@ -1896,7 +1897,6 @@
       <c r="F112" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="32"/>
@@ -1911,10 +1911,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H114" s="0" t="s">
+      <c r="H114" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I114" s="0" t="n">
+      <c r="I114" s="1" t="n">
         <f aca="false">I109/I108</f>
         <v>0.8</v>
       </c>

--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1_loan" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
   <si>
     <t xml:space="preserve">Case 1: Borrowing $1,000,000 from a bank at a 5% interest rate:</t>
   </si>
@@ -242,7 +242,16 @@
     <t xml:space="preserve">Accounting event 1: capital increase</t>
   </si>
   <si>
+    <t xml:space="preserve">Capital Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Accounting event 2: dividend payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retained earnings</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
   </sheetPr>
   <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
     </sheetView>
   </sheetViews>
@@ -1976,12 +1985,15 @@
   </sheetPr>
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.53"/>
@@ -2028,15 +2040,28 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="10"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>1000000</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <f aca="false">+E6</f>
+        <v>1000000</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="10"/>
@@ -2092,7 +2117,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,15 +2156,23 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="10"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>-300000</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="11" t="n">
+        <v>-300000</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="10"/>
@@ -2172,8 +2205,12 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="10"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>-300000</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>

--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="60">
   <si>
     <t xml:space="preserve">Case 1: Borrowing $1,000,000 from a bank at a 5% interest rate:</t>
   </si>
@@ -253,6 +253,15 @@
   <si>
     <t xml:space="preserve">Retained earnings</t>
   </si>
+  <si>
+    <t xml:space="preserve">a) What if dividends are announced that day but not paid yet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) what if the capital increase is done via issuing 1.000 new shares? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume a fixed “net income” for the following years of $50.000, a discount rate of 10% and a base of 10.000 shares</t>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +273,7 @@
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -323,8 +332,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,7 +349,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -421,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -555,6 +576,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -570,7 +595,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -587,7 +612,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -809,7 +834,7 @@
   </sheetPr>
   <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
     </sheetView>
   </sheetViews>
@@ -1983,17 +2008,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.53"/>
@@ -2066,7 +2091,6 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="10"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
       <c r="I7" s="10"/>
@@ -2162,7 +2186,6 @@
       <c r="E17" s="3" t="n">
         <v>-300000</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="10"/>
@@ -2177,7 +2200,6 @@
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="10"/>
@@ -2229,6 +2251,21 @@
       <c r="J21" s="18"/>
       <c r="L21" s="13"/>
       <c r="M21" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="34" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -337,6 +337,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -579,7 +580,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -834,7 +835,7 @@
   </sheetPr>
   <dimension ref="B2:M116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
     </sheetView>
   </sheetViews>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2186,16 +2187,17 @@
       <c r="E17" s="3" t="n">
         <v>-300000</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="F17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>-300000</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-      <c r="L17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="11" t="n">
-        <v>-300000</v>
-      </c>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="10"/>
@@ -2227,17 +2229,17 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="10"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="11" t="n">
-        <v>-300000</v>
-      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
       <c r="H20" s="1"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
+      <c r="L20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="11" t="n">
+        <v>-300000</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="13"/>
@@ -2253,12 +2255,12 @@
       <c r="M21" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Github/lecture_financial_statements_analysis/topic_2_img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E75927-98D4-A743-82E9-175DF93F6F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E66E6B-EAA0-0644-A8CA-620F708F90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_loan" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="64">
   <si>
     <t>Loan</t>
   </si>
@@ -281,6 +281,15 @@
   <si>
     <t>Case b: debt restructuring</t>
   </si>
+  <si>
+    <t>Profitability measures will look worse in case B "for many years!" because increase in financial expenses. Actually, in  case A, there will not be any financial expense after year 5.</t>
+  </si>
+  <si>
+    <t>Liquidity measures are better in case B because (1) no cash outflows (2) current liability is reclassified as noncurrent liability.</t>
+  </si>
+  <si>
+    <t>Solvency measures tend to be better in case A because the debt obligation is terminated.</t>
+  </si>
 </sst>
 </file>
 
@@ -289,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0;[Red]\-[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -336,6 +345,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -446,14 +462,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -484,6 +494,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M116"/>
+  <dimension ref="B2:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
@@ -762,7 +779,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -770,7 +787,7 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>1000000</v>
       </c>
     </row>
@@ -778,222 +795,222 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="I9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="31"/>
+      <c r="L9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="I10" s="10" t="s">
+      <c r="G10" s="7"/>
+      <c r="I10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="L10" s="7" t="s">
+      <c r="J10" s="9"/>
+      <c r="L10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D11" s="10"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="L11" s="10" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>1000000</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D13" s="10"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="7"/>
+      <c r="I13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="L13" s="7" t="s">
+      <c r="J13" s="9"/>
+      <c r="L13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D14" s="10"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>1000000</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="I15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="17"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="I20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2" t="s">
+      <c r="J20" s="31"/>
+      <c r="L20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="31"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="I21" s="7" t="s">
+      <c r="G21" s="7"/>
+      <c r="I21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="L21" s="7" t="s">
+      <c r="J21" s="9"/>
+      <c r="L21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D22" s="10"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D23" s="10"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D24" s="10"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="I24" s="7" t="s">
+      <c r="G24" s="7"/>
+      <c r="I24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="L24" s="7" t="s">
+      <c r="J24" s="9"/>
+      <c r="L24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D25" s="10"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="2"/>
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <f>+C5*C4</f>
         <v>50000</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <f>+-G25</f>
         <v>-50000</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="I26" s="16" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="I26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="15">
         <f>SUM(J21:J25)</f>
         <v>-50000</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="17"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
@@ -1001,785 +1018,799 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B35" s="6" t="s">
+    <row r="34" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D37" s="1" t="s">
+    <row r="36" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1" t="s">
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="I37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="L37" s="1" t="s">
+      <c r="J37" s="32"/>
+      <c r="L37" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D38" s="18" t="s">
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="I38" s="22" t="s">
+      <c r="G38" s="19"/>
+      <c r="I38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="L38" s="18" t="s">
+      <c r="J38" s="21"/>
+      <c r="L38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D39" s="22"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="23"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D40" s="22"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="21"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="20" t="s">
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="20"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="21"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="20"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+    </row>
+    <row r="41" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="20"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="I41" s="18" t="s">
+      <c r="G41" s="19"/>
+      <c r="I41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="L41" s="18" t="s">
+      <c r="J41" s="21"/>
+      <c r="L41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="23"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D42" s="22"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="19" t="s">
+      <c r="M41" s="21"/>
+    </row>
+    <row r="42" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="20"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="21">
         <v>1000000</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="21">
         <f>-G43</f>
         <v>-50000</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27" t="s">
+      <c r="L42" s="20"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="26">
         <f>C4*C5</f>
         <v>50000</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="26">
         <f>J42</f>
         <v>-50000</v>
       </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="28"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B44" s="6" t="s">
+      <c r="L43" s="23"/>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" spans="2:13" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="I45" s="2" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="I45" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="L45" s="2" t="s">
+      <c r="J45" s="31"/>
+      <c r="L45" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="31"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="I46" s="10" t="s">
+      <c r="G46" s="7"/>
+      <c r="I46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="L46" s="7" t="s">
+      <c r="J46" s="9"/>
+      <c r="L46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <f>+-(G42+G43)</f>
         <v>-1050000</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="11"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="11"/>
+      <c r="G47" s="9"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D48" s="10"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="9"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="11"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="2"/>
+      <c r="G48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D49" s="10"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="8" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="I49" s="7" t="s">
+      <c r="G49" s="7"/>
+      <c r="I49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="L49" s="7" t="s">
+      <c r="J49" s="9"/>
+      <c r="L49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="11"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D50" s="10"/>
-      <c r="E50" s="4"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="2"/>
       <c r="F50" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="9">
         <f>-G42</f>
         <v>-1000000</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="11"/>
-      <c r="L50" s="10" t="s">
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+      <c r="L50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="9">
         <f>+E47</f>
         <v>-1050000</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="15">
         <f>-G43</f>
         <v>-50000</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="17"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="17"/>
+      <c r="J51" s="15"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="15"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>0.05</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="B59" s="6" t="s">
+    <row r="58" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:13" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D61" s="1" t="s">
+    <row r="60" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="I61" s="1" t="s">
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="I61" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="L61" s="1" t="s">
+      <c r="J61" s="32"/>
+      <c r="L61" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D62" s="18" t="s">
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20" t="s">
+      <c r="E62" s="17"/>
+      <c r="F62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="21"/>
-      <c r="I62" s="22" t="s">
+      <c r="G62" s="19"/>
+      <c r="I62" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="L62" s="18" t="s">
+      <c r="J62" s="21"/>
+      <c r="L62" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M62" s="21"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D63" s="22"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="23"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D64" s="22"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="21"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="23"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="23"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D65" s="22"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="20" t="s">
+      <c r="M62" s="19"/>
+    </row>
+    <row r="63" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="20"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="21"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="21"/>
+    </row>
+    <row r="64" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D64" s="20"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="19"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="21"/>
+    </row>
+    <row r="65" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D65" s="20"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="I65" s="18" t="s">
+      <c r="G65" s="19"/>
+      <c r="I65" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="23"/>
-      <c r="L65" s="18" t="s">
+      <c r="J65" s="21"/>
+      <c r="L65" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M65" s="23"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D66" s="22"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="19" t="s">
+      <c r="M65" s="21"/>
+    </row>
+    <row r="66" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="20"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="21">
         <v>1000000</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="23">
+      <c r="J66" s="21">
         <f>-G67</f>
         <v>-50000</v>
       </c>
-      <c r="L66" s="22"/>
-      <c r="M66" s="23"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27" t="s">
+      <c r="L66" s="20"/>
+      <c r="M66" s="21"/>
+    </row>
+    <row r="67" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="26">
         <f>C57*C56</f>
         <v>50000</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="28">
+      <c r="J67" s="26">
         <f>J66</f>
         <v>-50000</v>
       </c>
-      <c r="L67" s="25"/>
-      <c r="M67" s="28"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B70" s="6" t="s">
+      <c r="L67" s="23"/>
+      <c r="M67" s="26"/>
+    </row>
+    <row r="68" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D72" s="2" t="s">
+    <row r="71" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D72" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="I72" s="2" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="I72" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="2"/>
-      <c r="L72" s="2" t="s">
+      <c r="J72" s="31"/>
+      <c r="L72" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D73" s="7" t="s">
+      <c r="M72" s="31"/>
+    </row>
+    <row r="73" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="I73" s="10" t="s">
+      <c r="G73" s="7"/>
+      <c r="I73" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="11"/>
-      <c r="L73" s="7" t="s">
+      <c r="J73" s="9"/>
+      <c r="L73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D74" s="10" t="s">
+      <c r="M73" s="7"/>
+    </row>
+    <row r="74" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="2">
         <f>+-C57*C56</f>
         <v>-50000</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="11"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D75" s="10"/>
-      <c r="E75" s="4"/>
-      <c r="G75" s="9"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="11"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="11"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D76" s="10"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="8" t="s">
+      <c r="G74" s="9"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="9"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="2"/>
+      <c r="G75" s="7"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="9"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D76" s="8"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="I76" s="7" t="s">
+      <c r="G76" s="7"/>
+      <c r="I76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="11"/>
-      <c r="L76" s="7" t="s">
+      <c r="J76" s="9"/>
+      <c r="L76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D77" s="10"/>
-      <c r="E77" s="4"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="8"/>
+      <c r="E77" s="2"/>
       <c r="F77" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="9">
         <v>-1000000</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="11"/>
-      <c r="L77" s="10" t="s">
+      <c r="J77" s="9"/>
+      <c r="L77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M77" s="9">
         <f>+E74</f>
         <v>-50000</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D78" s="10"/>
-      <c r="E78" s="4"/>
+    <row r="78" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="8"/>
+      <c r="E78" s="2"/>
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="9">
         <v>1000000</v>
       </c>
-      <c r="I78" s="16" t="s">
+      <c r="I78" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="17"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="14" t="s">
+      <c r="J78" s="15"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="15"/>
+    </row>
+    <row r="79" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="15">
         <f>-C56*C57</f>
         <v>-50000</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B82" s="6" t="s">
+    <row r="80" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D84" s="2" t="s">
+    <row r="83" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="I84" s="2" t="s">
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="I84" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J84" s="2"/>
-      <c r="L84" s="2" t="s">
+      <c r="J84" s="31"/>
+      <c r="L84" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D85" s="7" t="s">
+      <c r="M84" s="31"/>
+    </row>
+    <row r="85" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="9"/>
-      <c r="I85" s="10" t="s">
+      <c r="G85" s="7"/>
+      <c r="I85" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J85" s="11"/>
-      <c r="L85" s="7" t="s">
+      <c r="J85" s="9"/>
+      <c r="L85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M85" s="9"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D86" s="10" t="s">
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="G86" s="11"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="11"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="11"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D87" s="10"/>
-      <c r="E87" s="4"/>
-      <c r="G87" s="9"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="11"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="11"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D88" s="10"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="8" t="s">
+      <c r="E86" s="2"/>
+      <c r="G86" s="9"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="9"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D87" s="8"/>
+      <c r="E87" s="2"/>
+      <c r="G87" s="7"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="9"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="9"/>
+    </row>
+    <row r="88" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="I88" s="7" t="s">
+      <c r="G88" s="7"/>
+      <c r="I88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="11"/>
-      <c r="L88" s="7" t="s">
+      <c r="J88" s="9"/>
+      <c r="L88" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M88" s="11"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D89" s="10"/>
-      <c r="E89" s="4"/>
-      <c r="G89" s="11"/>
-      <c r="I89" s="10" t="s">
+      <c r="M88" s="9"/>
+    </row>
+    <row r="89" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="8"/>
+      <c r="E89" s="2"/>
+      <c r="G89" s="9"/>
+      <c r="I89" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J89" s="9">
         <f>-G90</f>
         <v>-100000</v>
       </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="11"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="14" t="s">
+      <c r="L89" s="8"/>
+      <c r="M89" s="9"/>
+    </row>
+    <row r="90" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="15">
         <f>D57*C56</f>
         <v>100000</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="I90" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="15">
         <f>J89</f>
         <v>-100000</v>
       </c>
-      <c r="L90" s="12"/>
-      <c r="M90" s="17"/>
-    </row>
-    <row r="93" spans="2:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="B93" s="6" t="s">
+      <c r="L90" s="10"/>
+      <c r="M90" s="15"/>
+    </row>
+    <row r="91" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="2:13" ht="15" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="I95" s="2" t="s">
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="I95" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="L95" s="2" t="s">
+      <c r="J95" s="31"/>
+      <c r="L95" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M95" s="2"/>
+      <c r="M95" s="31"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="I96" s="10" t="s">
+      <c r="G96" s="7"/>
+      <c r="I96" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J96" s="11"/>
-      <c r="L96" s="7" t="s">
+      <c r="J96" s="9"/>
+      <c r="L96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M96" s="9"/>
+      <c r="M96" s="7"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="2">
         <f>+E74</f>
         <v>-50000</v>
       </c>
-      <c r="G97" s="11"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="11"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="11"/>
+      <c r="G97" s="9"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="9"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="9"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D98" s="10"/>
-      <c r="E98" s="4"/>
-      <c r="G98" s="9"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="11"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="11"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="2"/>
+      <c r="G98" s="7"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="9"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="9"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D99" s="10"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="8" t="s">
+      <c r="D99" s="8"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="I99" s="7" t="s">
+      <c r="G99" s="7"/>
+      <c r="I99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J99" s="11"/>
-      <c r="L99" s="7" t="s">
+      <c r="J99" s="9"/>
+      <c r="L99" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M99" s="11"/>
+      <c r="M99" s="9"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D100" s="10"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="2"/>
       <c r="F100" t="s">
         <v>21</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="9">
         <f>G77</f>
         <v>-1000000</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="11">
+      <c r="J100" s="9">
         <f>+J89</f>
         <v>-100000</v>
       </c>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="11">
+      <c r="M100" s="9">
         <f>+E97</f>
         <v>-50000</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D101" s="10"/>
-      <c r="E101" s="4"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="2"/>
       <c r="F101" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="9">
         <f>+G78</f>
         <v>1000000</v>
       </c>
-      <c r="I101" s="16" t="s">
+      <c r="I101" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="17">
+      <c r="J101" s="15">
         <f>J100</f>
         <v>-100000</v>
       </c>
-      <c r="L101" s="12"/>
-      <c r="M101" s="17"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="15"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D102" s="12"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="15">
         <f>+G79+G90</f>
         <v>50000</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30" t="s">
+      <c r="C105" s="28"/>
+      <c r="D105" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30" t="s">
+      <c r="E105" s="28"/>
+      <c r="F105" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B107" s="3"/>
+      <c r="B107" s="1"/>
       <c r="C107" t="s">
         <v>34</v>
       </c>
       <c r="D107" t="s">
         <v>35</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I107" t="s">
@@ -1787,40 +1818,40 @@
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B108" s="3"/>
+      <c r="B108" s="1"/>
       <c r="C108" t="s">
         <v>38</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="33" t="s">
         <v>36</v>
       </c>
       <c r="H108" t="s">
         <v>39</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I108" s="2">
         <v>5000000</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H109" t="s">
         <v>41</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I109" s="2">
         <v>4000000</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B110" s="3"/>
+      <c r="B110" s="1"/>
       <c r="C110" t="s">
         <v>42</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="33" t="s">
         <v>36</v>
       </c>
       <c r="F110" t="s">
@@ -1829,21 +1860,22 @@
       <c r="H110" t="s">
         <v>43</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I110" s="2">
         <v>1000000</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D111" s="33"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B112" s="3"/>
+      <c r="B112" s="1"/>
       <c r="C112" t="s">
         <v>45</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="33" t="s">
         <v>36</v>
       </c>
       <c r="F112" t="s">
@@ -1851,14 +1883,14 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H113" s="30"/>
-      <c r="I113" s="30" t="s">
+      <c r="H113" s="28"/>
+      <c r="I113" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J113" s="30" t="s">
+      <c r="J113" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K113" s="30" t="s">
+      <c r="K113" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1870,11 +1902,11 @@
         <f>I109/I108</f>
         <v>0.8</v>
       </c>
-      <c r="J114" s="31">
+      <c r="J114" s="29">
         <f>(I109+G50+G51)/(I108-E47)</f>
         <v>0.48760330578512395</v>
       </c>
-      <c r="K114" s="31">
+      <c r="K114" s="29">
         <f>(I109+G102)/(I108+E97)</f>
         <v>0.81818181818181823</v>
       </c>
@@ -1884,32 +1916,47 @@
         <v>48</v>
       </c>
     </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="L72:M72"/>
     <mergeCell ref="D84:G84"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="D95:G95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="L95:M95"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1939,214 +1986,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="I4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="31"/>
+      <c r="L4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="L5" s="7" t="s">
+      <c r="J5" s="9"/>
+      <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>1000000</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="L6" s="10" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <f>+E6</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D7" s="10"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D8" s="10"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="7"/>
+      <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="L8" s="7" t="s">
+      <c r="J8" s="9"/>
+      <c r="L8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D9" s="10"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="16" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="I10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="17"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="I15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2" t="s">
+      <c r="J15" s="31"/>
+      <c r="L15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="I16" s="10" t="s">
+      <c r="G16" s="7"/>
+      <c r="I16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="L16" s="7" t="s">
+      <c r="J16" s="9"/>
+      <c r="L16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>-300000</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>-300000</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D18" s="10"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D19" s="10"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="7"/>
+      <c r="I19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="L19" s="7" t="s">
+      <c r="J19" s="9"/>
+      <c r="L19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D20" s="10"/>
-      <c r="E20" s="4"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="L20" s="10" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="2"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="L20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <v>-300000</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="I21" s="16" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="17"/>
+      <c r="J21" s="15"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -2159,7 +2206,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>56</v>
       </c>
     </row>

--- a/topic_2_img/Topic 2 Sol.xlsx
+++ b/topic_2_img/Topic 2 Sol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Github/lecture_financial_statements_analysis/topic_2_img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E66E6B-EAA0-0644-A8CA-620F708F90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18FCDF-6813-5443-AD3B-55FBC24524FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_loan" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -494,13 +494,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
@@ -805,20 +808,20 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="I9" s="31" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="I9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="L9" s="31" t="s">
+      <c r="J9" s="32"/>
+      <c r="L9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D10" s="5" t="s">
@@ -911,20 +914,20 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="I20" s="31" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="I20" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="L20" s="31" t="s">
+      <c r="J20" s="32"/>
+      <c r="L20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D21" s="5" t="s">
@@ -1047,20 +1050,20 @@
     </row>
     <row r="36" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="I37" s="32" t="s">
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="I37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="32"/>
-      <c r="L37" s="32" t="s">
+      <c r="J37" s="33"/>
+      <c r="L37" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="32"/>
+      <c r="M37" s="33"/>
     </row>
     <row r="38" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D38" s="16" t="s">
@@ -1161,20 +1164,20 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="I45" s="31" t="s">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="I45" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="31"/>
-      <c r="L45" s="31" t="s">
+      <c r="J45" s="32"/>
+      <c r="L45" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="31"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
@@ -1302,20 +1305,20 @@
     </row>
     <row r="60" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="I61" s="32" t="s">
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="I61" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="32"/>
-      <c r="L61" s="32" t="s">
+      <c r="J61" s="33"/>
+      <c r="L61" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M61" s="32"/>
+      <c r="M61" s="33"/>
     </row>
     <row r="62" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D62" s="16" t="s">
@@ -1419,20 +1422,20 @@
     </row>
     <row r="71" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="I72" s="31" t="s">
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="I72" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="31"/>
-      <c r="L72" s="31" t="s">
+      <c r="J72" s="32"/>
+      <c r="L72" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="31"/>
+      <c r="M72" s="32"/>
     </row>
     <row r="73" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D73" s="5" t="s">
@@ -1547,20 +1550,20 @@
     </row>
     <row r="83" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="I84" s="31" t="s">
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="I84" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J84" s="31"/>
-      <c r="L84" s="31" t="s">
+      <c r="J84" s="32"/>
+      <c r="L84" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M84" s="31"/>
+      <c r="M84" s="32"/>
     </row>
     <row r="85" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D85" s="5" t="s">
@@ -1657,20 +1660,20 @@
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="I95" s="31" t="s">
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="I95" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J95" s="31"/>
-      <c r="L95" s="31" t="s">
+      <c r="J95" s="32"/>
+      <c r="L95" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M95" s="31"/>
+      <c r="M95" s="32"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D96" s="5" t="s">
@@ -1810,7 +1813,7 @@
       <c r="D107" t="s">
         <v>35</v>
       </c>
-      <c r="F107" s="33" t="s">
+      <c r="F107" s="31" t="s">
         <v>36</v>
       </c>
       <c r="I107" t="s">
@@ -1825,7 +1828,7 @@
       <c r="D108" t="s">
         <v>35</v>
       </c>
-      <c r="F108" s="33" t="s">
+      <c r="F108" s="31" t="s">
         <v>36</v>
       </c>
       <c r="H108" t="s">
@@ -1851,7 +1854,7 @@
       <c r="C110" t="s">
         <v>42</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D110" s="31" t="s">
         <v>36</v>
       </c>
       <c r="F110" t="s">
@@ -1868,14 +1871,14 @@
       <c r="B111" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="33"/>
+      <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B112" s="1"/>
       <c r="C112" t="s">
         <v>45</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="31" t="s">
         <v>36</v>
       </c>
       <c r="F112" t="s">
@@ -1933,30 +1936,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="L95:M95"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1971,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:M15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1991,20 +1994,20 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="I4" s="31" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="I4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="L4" s="31" t="s">
+      <c r="J4" s="32"/>
+      <c r="L4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="31"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
@@ -2098,26 +2101,27 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="I15" s="31" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="I15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="L15" s="31" t="s">
+      <c r="J15" s="32"/>
+      <c r="L15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="31"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="7"/>
@@ -2134,10 +2138,10 @@
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="36">
         <v>-300000</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="34" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="9">
@@ -2145,10 +2149,13 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D18" s="8"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="7"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
@@ -2157,8 +2164,8 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D19" s="8"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7"/>
@@ -2173,7 +2180,9 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D20" s="8"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="7"/>
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
       <c r="L20" s="8" t="s">
